--- a/Code/Results/Cases/Case_4_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.495614814454882</v>
+        <v>1.324950471376837</v>
       </c>
       <c r="C2">
-        <v>0.5621609770554414</v>
+        <v>0.2719280110609645</v>
       </c>
       <c r="D2">
-        <v>0.2023795437063427</v>
+        <v>0.07906340444534976</v>
       </c>
       <c r="E2">
-        <v>0.03203117022532709</v>
+        <v>0.09033757861834069</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2892006270148642</v>
+        <v>0.4196179103708673</v>
       </c>
       <c r="H2">
-        <v>0.2318389971266868</v>
+        <v>0.5737809257208824</v>
       </c>
       <c r="I2">
-        <v>0.1688326397689792</v>
+        <v>0.5111246775245561</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3380227742687083</v>
+        <v>0.2244772498705601</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.048874140253545</v>
+        <v>1.935940658437289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.041945667295181</v>
+        <v>1.181201200701878</v>
       </c>
       <c r="C3">
-        <v>0.5061096474412636</v>
+        <v>0.2531973612183833</v>
       </c>
       <c r="D3">
-        <v>0.175473054005991</v>
+        <v>0.07164508350165022</v>
       </c>
       <c r="E3">
-        <v>0.03295866088055011</v>
+        <v>0.09155319993447364</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2700688008925383</v>
+        <v>0.4213809614588158</v>
       </c>
       <c r="H3">
-        <v>0.2300461991200464</v>
+        <v>0.579350118437354</v>
       </c>
       <c r="I3">
-        <v>0.1790239051015234</v>
+        <v>0.5210108412055323</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2964605702066336</v>
+        <v>0.2137058924912054</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.004129829973891</v>
+        <v>1.951024393143385</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.763576153546637</v>
+        <v>1.092754359451249</v>
       </c>
       <c r="C4">
-        <v>0.4716979450805354</v>
+        <v>0.2416516024323414</v>
       </c>
       <c r="D4">
-        <v>0.1591092596235626</v>
+        <v>0.06712429838881917</v>
       </c>
       <c r="E4">
-        <v>0.0336283808969835</v>
+        <v>0.09235810668841449</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2594461417190814</v>
+        <v>0.4229137285292595</v>
       </c>
       <c r="H4">
-        <v>0.2296332700740535</v>
+        <v>0.5831390204242268</v>
       </c>
       <c r="I4">
-        <v>0.1861998289775588</v>
+        <v>0.5275213011869848</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2711862244331087</v>
+        <v>0.2071904858615028</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9804692424908268</v>
+        <v>1.96200277369779</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.650149227523798</v>
+        <v>1.056667614873561</v>
       </c>
       <c r="C5">
-        <v>0.457672351857525</v>
+        <v>0.2369356416293158</v>
       </c>
       <c r="D5">
-        <v>0.1524755097670152</v>
+        <v>0.06529061278416748</v>
       </c>
       <c r="E5">
-        <v>0.03392561550147466</v>
+        <v>0.0927008213505518</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2553817896393582</v>
+        <v>0.4236512021034926</v>
       </c>
       <c r="H5">
-        <v>0.2296297349209979</v>
+        <v>0.5847758471420832</v>
       </c>
       <c r="I5">
-        <v>0.1893441794923234</v>
+        <v>0.5302848664483637</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2609417757819728</v>
+        <v>0.2045602147786383</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9717301075139488</v>
+        <v>1.966907368903378</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.631314437104493</v>
+        <v>1.050672855176742</v>
       </c>
       <c r="C6">
-        <v>0.4553431603813181</v>
+        <v>0.2361519080492087</v>
       </c>
       <c r="D6">
-        <v>0.151375935849714</v>
+        <v>0.0649866482996373</v>
       </c>
       <c r="E6">
-        <v>0.03397641463571865</v>
+        <v>0.09275861709757205</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2547223635264686</v>
+        <v>0.4237804648435173</v>
       </c>
       <c r="H6">
-        <v>0.2296388647541079</v>
+        <v>0.5850532449501458</v>
       </c>
       <c r="I6">
-        <v>0.1898792828689277</v>
+        <v>0.5307504217921331</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2592438331181626</v>
+        <v>0.2041249618228562</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.970331920967709</v>
+        <v>1.96774776658124</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.762046439512972</v>
+        <v>1.092267855726732</v>
       </c>
       <c r="C7">
-        <v>0.4715088058335652</v>
+        <v>0.2415880452724082</v>
       </c>
       <c r="D7">
-        <v>0.1590196605371546</v>
+        <v>0.06709953396297408</v>
       </c>
       <c r="E7">
-        <v>0.03363229218692965</v>
+        <v>0.09236266910918722</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2593902810985185</v>
+        <v>0.4229232178744979</v>
       </c>
       <c r="H7">
-        <v>0.2296325659602658</v>
+        <v>0.5831607195166697</v>
       </c>
       <c r="I7">
-        <v>0.1862413575524506</v>
+        <v>0.5275581244787091</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.271047849714634</v>
+        <v>0.2071549125114842</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9803478002003772</v>
+        <v>1.962067175644492</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.339128896114744</v>
+        <v>1.275425333931139</v>
       </c>
       <c r="C8">
-        <v>0.5428313923228814</v>
+        <v>0.2654792461468389</v>
       </c>
       <c r="D8">
-        <v>0.1930666328610755</v>
+        <v>0.07649848758399003</v>
       </c>
       <c r="E8">
-        <v>0.03232961881866014</v>
+        <v>0.0907445785391463</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2823593302488518</v>
+        <v>0.4201321447527135</v>
       </c>
       <c r="H8">
-        <v>0.2310729913924092</v>
+        <v>0.575624473841664</v>
       </c>
       <c r="I8">
-        <v>0.1721492741346999</v>
+        <v>0.5144419075881821</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3236371996339358</v>
+        <v>0.2207429524939073</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.032620422916978</v>
+        <v>1.940784634901306</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.474044539193244</v>
+        <v>1.633048350162255</v>
       </c>
       <c r="C9">
-        <v>0.6829087786626076</v>
+        <v>0.3119586989034246</v>
       </c>
       <c r="D9">
-        <v>0.2613108594561311</v>
+        <v>0.09520141555778139</v>
       </c>
       <c r="E9">
-        <v>0.03061235802890394</v>
+        <v>0.08803593980819002</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3371955650017071</v>
+        <v>0.4182480823735659</v>
       </c>
       <c r="H9">
-        <v>0.2397485539029702</v>
+        <v>0.5637801636573272</v>
       </c>
       <c r="I9">
-        <v>0.1523173911876157</v>
+        <v>0.4922243609679064</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4290282897488424</v>
+        <v>0.248165644051511</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.168052050027626</v>
+        <v>1.912715118293193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.312617924619758</v>
+        <v>1.894760208384298</v>
       </c>
       <c r="C10">
-        <v>0.7862394156769312</v>
+        <v>0.3458660996918184</v>
       </c>
       <c r="D10">
-        <v>0.3126999142092188</v>
+        <v>0.1091109700846857</v>
       </c>
       <c r="E10">
-        <v>0.02992250340407665</v>
+        <v>0.08632926031089561</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3847465659941776</v>
+        <v>0.419075805411893</v>
       </c>
       <c r="H10">
-        <v>0.2502710439832327</v>
+        <v>0.5568716706959265</v>
       </c>
       <c r="I10">
-        <v>0.1432618271370636</v>
+        <v>0.4780496291047029</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5083199754373595</v>
+        <v>0.2687848604384442</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.291584137304625</v>
+        <v>1.900484222891663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.695813317193767</v>
+        <v>2.013578107629087</v>
       </c>
       <c r="C11">
-        <v>0.8334078558361568</v>
+        <v>0.3612362324419394</v>
       </c>
       <c r="D11">
-        <v>0.3364330223524945</v>
+        <v>0.1154760850311192</v>
       </c>
       <c r="E11">
-        <v>0.02974734693497183</v>
+        <v>0.08561442460214685</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4082649003713499</v>
+        <v>0.4199378054465086</v>
       </c>
       <c r="H11">
-        <v>0.256098058781177</v>
+        <v>0.5541193010551524</v>
       </c>
       <c r="I11">
-        <v>0.1405205333377673</v>
+        <v>0.4720704227970813</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5449116282643018</v>
+        <v>0.2782673178865309</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.353947170994047</v>
+        <v>1.896755441858545</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.841227060881636</v>
+        <v>2.058535414670644</v>
       </c>
       <c r="C12">
-        <v>0.8512989498356376</v>
+        <v>0.3670483534741322</v>
       </c>
       <c r="D12">
-        <v>0.3454787400283124</v>
+        <v>0.1178918171712553</v>
       </c>
       <c r="E12">
-        <v>0.02970225995887077</v>
+        <v>0.08535258968889892</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4174699190349145</v>
+        <v>0.420334430161077</v>
       </c>
       <c r="H12">
-        <v>0.2584667691972697</v>
+        <v>0.5531332646048526</v>
       </c>
       <c r="I12">
-        <v>0.1396969974208204</v>
+        <v>0.4698739236217868</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5588532295560213</v>
+        <v>0.28187277366861</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.378534775312858</v>
+        <v>1.895608365091363</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.809895025074184</v>
+        <v>2.048854714955723</v>
       </c>
       <c r="C13">
-        <v>0.84744437221201</v>
+        <v>0.3657969805068717</v>
       </c>
       <c r="D13">
-        <v>0.3435278584715888</v>
+        <v>0.1173713058787058</v>
       </c>
       <c r="E13">
-        <v>0.0297110038701458</v>
+        <v>0.085408586435749</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4154736845509746</v>
+        <v>0.4202458813275456</v>
       </c>
       <c r="H13">
-        <v>0.2579492032770645</v>
+        <v>0.553343122996111</v>
       </c>
       <c r="I13">
-        <v>0.1398645456874164</v>
+        <v>0.4703439640354539</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5558466996757261</v>
+        <v>0.2810956242081346</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.373194735336654</v>
+        <v>1.895843609116412</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.707770111593902</v>
+        <v>2.01727751712076</v>
       </c>
       <c r="C14">
-        <v>0.8348791407295266</v>
+        <v>0.361714565909125</v>
       </c>
       <c r="D14">
-        <v>0.3371760026024333</v>
+        <v>0.1156747205436375</v>
       </c>
       <c r="E14">
-        <v>0.0297432041296446</v>
+        <v>0.08559270571442745</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4090160410703731</v>
+        <v>0.4199690267543872</v>
       </c>
       <c r="H14">
-        <v>0.2562896090110343</v>
+        <v>0.5540370518374544</v>
       </c>
       <c r="I14">
-        <v>0.1404483829514369</v>
+        <v>0.471888357251359</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.546056844966273</v>
+        <v>0.2785636478210449</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.355950015058482</v>
+        <v>1.896655755574216</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.645257304432675</v>
+        <v>1.997930750758314</v>
       </c>
       <c r="C15">
-        <v>0.827186593875723</v>
+        <v>0.359212888216689</v>
       </c>
       <c r="D15">
-        <v>0.3332931530036518</v>
+        <v>0.1146362163133574</v>
       </c>
       <c r="E15">
-        <v>0.02976573406126626</v>
+        <v>0.08570663788776756</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4051003644299698</v>
+        <v>0.4198085996464869</v>
       </c>
       <c r="H15">
-        <v>0.2552945648548075</v>
+        <v>0.5544694284433831</v>
       </c>
       <c r="I15">
-        <v>0.140834444822886</v>
+        <v>0.4728431665344281</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5400716782949928</v>
+        <v>0.2770146444471067</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.34551635768247</v>
+        <v>1.897187751558192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.28761475017393</v>
+        <v>1.886990213609636</v>
       </c>
       <c r="C16">
-        <v>0.7831606257624628</v>
+        <v>0.3448604962118225</v>
       </c>
       <c r="D16">
-        <v>0.311156675952887</v>
+        <v>0.1086957509095754</v>
       </c>
       <c r="E16">
-        <v>0.02993684979600886</v>
+        <v>0.08637721558489986</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3832498878985859</v>
+        <v>0.4190292742711961</v>
       </c>
       <c r="H16">
-        <v>0.2499122197036741</v>
+        <v>0.5570594073473387</v>
       </c>
       <c r="I16">
-        <v>0.143470079847809</v>
+        <v>0.4784498431906776</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5059399680307735</v>
+        <v>0.2681672162274111</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.287639810941613</v>
+        <v>1.900764924107278</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.068694011197294</v>
+        <v>1.818869523284718</v>
       </c>
       <c r="C17">
-        <v>0.7561979372780456</v>
+        <v>0.336041537769745</v>
       </c>
       <c r="D17">
-        <v>0.2976728740205061</v>
+        <v>0.1050610925402964</v>
       </c>
       <c r="E17">
-        <v>0.0300782372192554</v>
+        <v>0.08680436141748693</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3703477786854421</v>
+        <v>0.4186758041549865</v>
       </c>
       <c r="H17">
-        <v>0.2468854045774265</v>
+        <v>0.5587483189795535</v>
       </c>
       <c r="I17">
-        <v>0.145451195640149</v>
+        <v>0.4820096537894116</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.485141808103549</v>
+        <v>0.2627658245895361</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.253772720064973</v>
+        <v>1.903430165390176</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.94293512331393</v>
+        <v>1.779666225275037</v>
       </c>
       <c r="C18">
-        <v>0.7407046459074422</v>
+        <v>0.3309639972244156</v>
       </c>
       <c r="D18">
-        <v>0.2899503841929061</v>
+        <v>0.102974071492028</v>
       </c>
       <c r="E18">
-        <v>0.03017252810569815</v>
+        <v>0.08705583647636139</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3631026722102746</v>
+        <v>0.4185181682671839</v>
       </c>
       <c r="H18">
-        <v>0.2452415709603031</v>
+        <v>0.5597564710627267</v>
       </c>
       <c r="I18">
-        <v>0.1467193491418932</v>
+        <v>0.4841012868931571</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4732276869394241</v>
+        <v>0.2596687575041585</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.234868329774372</v>
+        <v>1.905135809260855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.900380862274289</v>
+        <v>1.766388946591121</v>
       </c>
       <c r="C19">
-        <v>0.7354612737899231</v>
+        <v>0.3292439632902244</v>
       </c>
       <c r="D19">
-        <v>0.2873411416615284</v>
+        <v>0.1022680498454207</v>
       </c>
       <c r="E19">
-        <v>0.03020664249997829</v>
+        <v>0.08714197615094754</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3606789929042833</v>
+        <v>0.418472627398927</v>
       </c>
       <c r="H19">
-        <v>0.2447013086853218</v>
+        <v>0.560104120340327</v>
       </c>
       <c r="I19">
-        <v>0.1471703438442162</v>
+        <v>0.4848170483041727</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4692017915323987</v>
+        <v>0.2586218080614771</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.228563904137843</v>
+        <v>1.905742934883932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.09198168516815</v>
+        <v>1.826123390276905</v>
       </c>
       <c r="C20">
-        <v>0.7590665739859048</v>
+        <v>0.3369808624367465</v>
       </c>
       <c r="D20">
-        <v>0.2991047773299584</v>
+        <v>0.1054476419540435</v>
       </c>
       <c r="E20">
-        <v>0.03006183493794623</v>
+        <v>0.08675829149634673</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3717028363917336</v>
+        <v>0.4187087020311395</v>
       </c>
       <c r="H20">
-        <v>0.2471974757243771</v>
+        <v>0.5585647288429527</v>
       </c>
       <c r="I20">
-        <v>0.1452268711238496</v>
+        <v>0.4816261372834489</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4873507243347319</v>
+        <v>0.2633398118816501</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.257317816089369</v>
+        <v>1.90312856787196</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.737757883651057</v>
+        <v>2.026553514663931</v>
       </c>
       <c r="C21">
-        <v>0.8385690044883063</v>
+        <v>0.3629138959539944</v>
       </c>
       <c r="D21">
-        <v>0.3390400478019302</v>
+        <v>0.1161729022290388</v>
       </c>
       <c r="E21">
-        <v>0.02973315884454308</v>
+        <v>0.08553838495392085</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4109044572148122</v>
+        <v>0.4200484372016291</v>
       </c>
       <c r="H21">
-        <v>0.2567725666256706</v>
+        <v>0.5538317013894272</v>
       </c>
       <c r="I21">
-        <v>0.1402709370230291</v>
+        <v>0.4714328921793367</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5489299671914694</v>
+        <v>0.2793069537989936</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.36098811438228</v>
+        <v>1.896410010006576</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.161623864900037</v>
+        <v>2.157332570910114</v>
       </c>
       <c r="C22">
-        <v>0.8907031588269092</v>
+        <v>0.3798145795481105</v>
       </c>
       <c r="D22">
-        <v>0.3654848647033617</v>
+        <v>0.1232139602090427</v>
       </c>
       <c r="E22">
-        <v>0.02964282800089713</v>
+        <v>0.08479273966102241</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4382830219234108</v>
+        <v>0.4213334158991273</v>
       </c>
       <c r="H22">
-        <v>0.2639820909527799</v>
+        <v>0.5510661679652742</v>
       </c>
       <c r="I22">
-        <v>0.1382908946746717</v>
+        <v>0.4651657252861163</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5896770956246087</v>
+        <v>0.2898277739428465</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.434452977345813</v>
+        <v>1.893563749458025</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.935212174461014</v>
+        <v>2.087553692113033</v>
       </c>
       <c r="C23">
-        <v>0.8628600632855807</v>
+        <v>0.3707988866038363</v>
       </c>
       <c r="D23">
-        <v>0.3513366550893551</v>
+        <v>0.1194531360506659</v>
       </c>
       <c r="E23">
-        <v>0.02967919592019719</v>
+        <v>0.08518597734071065</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4234999688111998</v>
+        <v>0.4206100100335846</v>
       </c>
       <c r="H23">
-        <v>0.2600427521436899</v>
+        <v>0.5525121622627296</v>
       </c>
       <c r="I23">
-        <v>0.1392267586779603</v>
+        <v>0.4684744280067363</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.567880132110929</v>
+        <v>0.2842048388459517</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.394691030745264</v>
+        <v>1.89494116797357</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.081453015753596</v>
+        <v>1.822844040812868</v>
       </c>
       <c r="C24">
-        <v>0.7577696391172424</v>
+        <v>0.3365562167900578</v>
       </c>
       <c r="D24">
-        <v>0.2984573224185851</v>
+        <v>0.1052728748895646</v>
       </c>
       <c r="E24">
-        <v>0.03006920999788321</v>
+        <v>0.08677910132038136</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3710896796155367</v>
+        <v>0.4186936869563169</v>
       </c>
       <c r="H24">
-        <v>0.2470560892729452</v>
+        <v>0.5586476141536707</v>
       </c>
       <c r="I24">
-        <v>0.1453278870821144</v>
+        <v>0.4817993847844875</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4863519400729359</v>
+        <v>0.2630802864763524</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.255713320792864</v>
+        <v>1.903264380176438</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.166398632881794</v>
+        <v>1.536476986031971</v>
       </c>
       <c r="C25">
-        <v>0.6449632252294748</v>
+        <v>0.2994260522797276</v>
       </c>
       <c r="D25">
-        <v>0.2426561152865219</v>
+        <v>0.09011239538018856</v>
       </c>
       <c r="E25">
-        <v>0.03098117166302572</v>
+        <v>0.08871895397963847</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3211842562834022</v>
+        <v>0.418371046290261</v>
       </c>
       <c r="H25">
-        <v>0.2367175394882679</v>
+        <v>0.5666697426199505</v>
       </c>
       <c r="I25">
-        <v>0.1567718570398746</v>
+        <v>0.4978584183444106</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.400227260555738</v>
+        <v>0.240664114622362</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.127496829217904</v>
+        <v>1.918839364982034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_125/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.324950471376837</v>
+        <v>3.495614814454996</v>
       </c>
       <c r="C2">
-        <v>0.2719280110609645</v>
+        <v>0.562160977055413</v>
       </c>
       <c r="D2">
-        <v>0.07906340444534976</v>
+        <v>0.2023795437065559</v>
       </c>
       <c r="E2">
-        <v>0.09033757861834069</v>
+        <v>0.03203117022528268</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4196179103708673</v>
+        <v>0.2892006270149352</v>
       </c>
       <c r="H2">
-        <v>0.5737809257208824</v>
+        <v>0.2318389971266797</v>
       </c>
       <c r="I2">
-        <v>0.5111246775245561</v>
+        <v>0.1688326397689934</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2244772498705601</v>
+        <v>0.3380227742687794</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.935940658437289</v>
+        <v>1.04887414025356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.181201200701878</v>
+        <v>3.041945667295067</v>
       </c>
       <c r="C3">
-        <v>0.2531973612183833</v>
+        <v>0.5061096474410363</v>
       </c>
       <c r="D3">
-        <v>0.07164508350165022</v>
+        <v>0.1754730540060763</v>
       </c>
       <c r="E3">
-        <v>0.09155319993447364</v>
+        <v>0.0329586608805652</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4213809614588158</v>
+        <v>0.2700688008925596</v>
       </c>
       <c r="H3">
-        <v>0.579350118437354</v>
+        <v>0.2300461991200464</v>
       </c>
       <c r="I3">
-        <v>0.5210108412055323</v>
+        <v>0.1790239051015341</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2137058924912054</v>
+        <v>0.2964605702066763</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.951024393143385</v>
+        <v>1.004129829973991</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.092754359451249</v>
+        <v>2.763576153546808</v>
       </c>
       <c r="C4">
-        <v>0.2416516024323414</v>
+        <v>0.471697945080308</v>
       </c>
       <c r="D4">
-        <v>0.06712429838881917</v>
+        <v>0.1591092596235484</v>
       </c>
       <c r="E4">
-        <v>0.09235810668841449</v>
+        <v>0.03362838089695952</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4229137285292595</v>
+        <v>0.2594461417190885</v>
       </c>
       <c r="H4">
-        <v>0.5831390204242268</v>
+        <v>0.2296332700739399</v>
       </c>
       <c r="I4">
-        <v>0.5275213011869848</v>
+        <v>0.1861998289775642</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2071904858615028</v>
+        <v>0.2711862244330803</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.96200277369779</v>
+        <v>0.9804692424909121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.056667614873561</v>
+        <v>2.650149227523741</v>
       </c>
       <c r="C5">
-        <v>0.2369356416293158</v>
+        <v>0.4576723518573544</v>
       </c>
       <c r="D5">
-        <v>0.06529061278416748</v>
+        <v>0.1524755097670152</v>
       </c>
       <c r="E5">
-        <v>0.0927008213505518</v>
+        <v>0.03392561550147377</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4236512021034926</v>
+        <v>0.2553817896394222</v>
       </c>
       <c r="H5">
-        <v>0.5847758471420832</v>
+        <v>0.229629734921005</v>
       </c>
       <c r="I5">
-        <v>0.5302848664483637</v>
+        <v>0.1893441794923092</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2045602147786383</v>
+        <v>0.2609417757819301</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.966907368903378</v>
+        <v>0.971730107513892</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.050672855176742</v>
+        <v>2.631314437104493</v>
       </c>
       <c r="C6">
-        <v>0.2361519080492087</v>
+        <v>0.4553431603815454</v>
       </c>
       <c r="D6">
-        <v>0.0649866482996373</v>
+        <v>0.1513759358495435</v>
       </c>
       <c r="E6">
-        <v>0.09275861709757205</v>
+        <v>0.03397641463571777</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4237804648435173</v>
+        <v>0.2547223635264757</v>
       </c>
       <c r="H6">
-        <v>0.5850532449501458</v>
+        <v>0.2296388647541079</v>
       </c>
       <c r="I6">
-        <v>0.5307504217921331</v>
+        <v>0.1898792828689402</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2041249618228562</v>
+        <v>0.2592438331181341</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.96774776658124</v>
+        <v>0.9703319209676948</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.092267855726732</v>
+        <v>2.762046439513142</v>
       </c>
       <c r="C7">
-        <v>0.2415880452724082</v>
+        <v>0.4715088058341905</v>
       </c>
       <c r="D7">
-        <v>0.06709953396297408</v>
+        <v>0.1590196605372256</v>
       </c>
       <c r="E7">
-        <v>0.09236266910918722</v>
+        <v>0.03363229218688346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4229232178744979</v>
+        <v>0.2593902810983906</v>
       </c>
       <c r="H7">
-        <v>0.5831607195166697</v>
+        <v>0.2296325659602658</v>
       </c>
       <c r="I7">
-        <v>0.5275581244787091</v>
+        <v>0.1862413575524382</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2071549125114842</v>
+        <v>0.2710478497147193</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.962067175644492</v>
+        <v>0.9803478002003629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.275425333931139</v>
+        <v>3.339128896114744</v>
       </c>
       <c r="C8">
-        <v>0.2654792461468389</v>
+        <v>0.5428313923229666</v>
       </c>
       <c r="D8">
-        <v>0.07649848758399003</v>
+        <v>0.193066632861246</v>
       </c>
       <c r="E8">
-        <v>0.0907445785391463</v>
+        <v>0.03232961881865748</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4201321447527135</v>
+        <v>0.2823593302489655</v>
       </c>
       <c r="H8">
-        <v>0.575624473841664</v>
+        <v>0.2310729913924234</v>
       </c>
       <c r="I8">
-        <v>0.5144419075881821</v>
+        <v>0.1721492741347035</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2207429524939073</v>
+        <v>0.3236371996340068</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.940784634901306</v>
+        <v>1.032620422916992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.633048350162255</v>
+        <v>4.474044539193358</v>
       </c>
       <c r="C9">
-        <v>0.3119586989034246</v>
+        <v>0.6829087786625507</v>
       </c>
       <c r="D9">
-        <v>0.09520141555778139</v>
+        <v>0.2613108594561879</v>
       </c>
       <c r="E9">
-        <v>0.08803593980819002</v>
+        <v>0.03061235802887552</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4182480823735659</v>
+        <v>0.337195565001764</v>
       </c>
       <c r="H9">
-        <v>0.5637801636573272</v>
+        <v>0.2397485539030839</v>
       </c>
       <c r="I9">
-        <v>0.4922243609679064</v>
+        <v>0.1523173911876015</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.248165644051511</v>
+        <v>0.4290282897488282</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.912715118293193</v>
+        <v>1.168052050027597</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.894760208384298</v>
+        <v>5.312617924619587</v>
       </c>
       <c r="C10">
-        <v>0.3458660996918184</v>
+        <v>0.7862394156767323</v>
       </c>
       <c r="D10">
-        <v>0.1091109700846857</v>
+        <v>0.3126999142094604</v>
       </c>
       <c r="E10">
-        <v>0.08632926031089561</v>
+        <v>0.02992250340406066</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.419075805411893</v>
+        <v>0.3847465659941776</v>
       </c>
       <c r="H10">
-        <v>0.5568716706959265</v>
+        <v>0.250271043983247</v>
       </c>
       <c r="I10">
-        <v>0.4780496291047029</v>
+        <v>0.1432618271370742</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2687848604384442</v>
+        <v>0.5083199754372743</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.900484222891663</v>
+        <v>1.291584137304596</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.013578107629087</v>
+        <v>5.695813317193654</v>
       </c>
       <c r="C11">
-        <v>0.3612362324419394</v>
+        <v>0.8334078558362421</v>
       </c>
       <c r="D11">
-        <v>0.1154760850311192</v>
+        <v>0.3364330223524519</v>
       </c>
       <c r="E11">
-        <v>0.08561442460214685</v>
+        <v>0.02974734693498604</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4199378054465086</v>
+        <v>0.4082649003713925</v>
       </c>
       <c r="H11">
-        <v>0.5541193010551524</v>
+        <v>0.2560980587811628</v>
       </c>
       <c r="I11">
-        <v>0.4720704227970813</v>
+        <v>0.1405205333377637</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2782673178865309</v>
+        <v>0.5449116282643303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.896755441858545</v>
+        <v>1.353947170994132</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.058535414670644</v>
+        <v>5.84122706088192</v>
       </c>
       <c r="C12">
-        <v>0.3670483534741322</v>
+        <v>0.8512989498358365</v>
       </c>
       <c r="D12">
-        <v>0.1178918171712553</v>
+        <v>0.3454787400281987</v>
       </c>
       <c r="E12">
-        <v>0.08535258968889892</v>
+        <v>0.02970225995888676</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.420334430161077</v>
+        <v>0.4174699190349003</v>
       </c>
       <c r="H12">
-        <v>0.5531332646048526</v>
+        <v>0.2584667691971418</v>
       </c>
       <c r="I12">
-        <v>0.4698739236217868</v>
+        <v>0.1396969974208204</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.28187277366861</v>
+        <v>0.5588532295559503</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.895608365091363</v>
+        <v>1.378534775312829</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.048854714955723</v>
+        <v>5.809895025074525</v>
       </c>
       <c r="C13">
-        <v>0.3657969805068717</v>
+        <v>0.8474443722119531</v>
       </c>
       <c r="D13">
-        <v>0.1173713058787058</v>
+        <v>0.3435278584715888</v>
       </c>
       <c r="E13">
-        <v>0.085408586435749</v>
+        <v>0.02971100387014403</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4202458813275456</v>
+        <v>0.4154736845509746</v>
       </c>
       <c r="H13">
-        <v>0.553343122996111</v>
+        <v>0.257949203277164</v>
       </c>
       <c r="I13">
-        <v>0.4703439640354539</v>
+        <v>0.1398645456874199</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2810956242081346</v>
+        <v>0.5558466996757403</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.895843609116412</v>
+        <v>1.373194735336654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.01727751712076</v>
+        <v>5.707770111594186</v>
       </c>
       <c r="C14">
-        <v>0.361714565909125</v>
+        <v>0.8348791407296687</v>
       </c>
       <c r="D14">
-        <v>0.1156747205436375</v>
+        <v>0.3371760026023765</v>
       </c>
       <c r="E14">
-        <v>0.08559270571442745</v>
+        <v>0.0297432041296446</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4199690267543872</v>
+        <v>0.4090160410703731</v>
       </c>
       <c r="H14">
-        <v>0.5540370518374544</v>
+        <v>0.2562896090109206</v>
       </c>
       <c r="I14">
-        <v>0.471888357251359</v>
+        <v>0.1404483829514405</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2785636478210449</v>
+        <v>0.5460568449663299</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.896655755574216</v>
+        <v>1.355950015058539</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.997930750758314</v>
+        <v>5.645257304432732</v>
       </c>
       <c r="C15">
-        <v>0.359212888216689</v>
+        <v>0.8271865938754956</v>
       </c>
       <c r="D15">
-        <v>0.1146362163133574</v>
+        <v>0.3332931530035381</v>
       </c>
       <c r="E15">
-        <v>0.08570663788776756</v>
+        <v>0.02976573406126626</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4198085996464869</v>
+        <v>0.4051003644299698</v>
       </c>
       <c r="H15">
-        <v>0.5544694284433831</v>
+        <v>0.2552945648547933</v>
       </c>
       <c r="I15">
-        <v>0.4728431665344281</v>
+        <v>0.1408344448228824</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2770146444471067</v>
+        <v>0.5400716782949218</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.897187751558192</v>
+        <v>1.345516357682556</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.886990213609636</v>
+        <v>5.287614750174214</v>
       </c>
       <c r="C16">
-        <v>0.3448604962118225</v>
+        <v>0.7831606257630881</v>
       </c>
       <c r="D16">
-        <v>0.1086957509095754</v>
+        <v>0.311156675952887</v>
       </c>
       <c r="E16">
-        <v>0.08637721558489986</v>
+        <v>0.02993684979600708</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4190292742711961</v>
+        <v>0.3832498878985575</v>
       </c>
       <c r="H16">
-        <v>0.5570594073473387</v>
+        <v>0.2499122197036741</v>
       </c>
       <c r="I16">
-        <v>0.4784498431906776</v>
+        <v>0.143470079847809</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2681672162274111</v>
+        <v>0.5059399680308161</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.900764924107278</v>
+        <v>1.28763981094167</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.818869523284718</v>
+        <v>5.068694011197351</v>
       </c>
       <c r="C17">
-        <v>0.336041537769745</v>
+        <v>0.7561979372780456</v>
       </c>
       <c r="D17">
-        <v>0.1050610925402964</v>
+        <v>0.2976728740202788</v>
       </c>
       <c r="E17">
-        <v>0.08680436141748693</v>
+        <v>0.03007823721927139</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4186758041549865</v>
+        <v>0.370347778685499</v>
       </c>
       <c r="H17">
-        <v>0.5587483189795535</v>
+        <v>0.2468854045773128</v>
       </c>
       <c r="I17">
-        <v>0.4820096537894116</v>
+        <v>0.1454511956401667</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2627658245895361</v>
+        <v>0.4851418081035916</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.903430165390176</v>
+        <v>1.253772720065029</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.779666225275037</v>
+        <v>4.942935123313816</v>
       </c>
       <c r="C18">
-        <v>0.3309639972244156</v>
+        <v>0.7407046459074422</v>
       </c>
       <c r="D18">
-        <v>0.102974071492028</v>
+        <v>0.2899503841929629</v>
       </c>
       <c r="E18">
-        <v>0.08705583647636139</v>
+        <v>0.03017252810572657</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4185181682671839</v>
+        <v>0.363102672210232</v>
       </c>
       <c r="H18">
-        <v>0.5597564710627267</v>
+        <v>0.2452415709601894</v>
       </c>
       <c r="I18">
-        <v>0.4841012868931571</v>
+        <v>0.1467193491419074</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2596687575041585</v>
+        <v>0.4732276869394951</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.905135809260855</v>
+        <v>1.234868329774343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.766388946591121</v>
+        <v>4.900380862274233</v>
       </c>
       <c r="C19">
-        <v>0.3292439632902244</v>
+        <v>0.7354612737896673</v>
       </c>
       <c r="D19">
-        <v>0.1022680498454207</v>
+        <v>0.2873411416615852</v>
       </c>
       <c r="E19">
-        <v>0.08714197615094754</v>
+        <v>0.03020664250001914</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.418472627398927</v>
+        <v>0.3606789929042691</v>
       </c>
       <c r="H19">
-        <v>0.560104120340327</v>
+        <v>0.2447013086852081</v>
       </c>
       <c r="I19">
-        <v>0.4848170483041727</v>
+        <v>0.1471703438442127</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2586218080614771</v>
+        <v>0.4692017915324129</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.905742934883932</v>
+        <v>1.228563904137985</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.826123390276905</v>
+        <v>5.091981685168093</v>
       </c>
       <c r="C20">
-        <v>0.3369808624367465</v>
+        <v>0.7590665739859617</v>
       </c>
       <c r="D20">
-        <v>0.1054476419540435</v>
+        <v>0.2991047773297026</v>
       </c>
       <c r="E20">
-        <v>0.08675829149634673</v>
+        <v>0.03006183493795511</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4187087020311395</v>
+        <v>0.3717028363918473</v>
       </c>
       <c r="H20">
-        <v>0.5585647288429527</v>
+        <v>0.2471974757243913</v>
       </c>
       <c r="I20">
-        <v>0.4816261372834489</v>
+        <v>0.1452268711238567</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2633398118816501</v>
+        <v>0.4873507243346751</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.90312856787196</v>
+        <v>1.257317816089397</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.026553514663931</v>
+        <v>5.737757883651057</v>
       </c>
       <c r="C21">
-        <v>0.3629138959539944</v>
+        <v>0.8385690044880505</v>
       </c>
       <c r="D21">
-        <v>0.1161729022290388</v>
+        <v>0.3390400478020155</v>
       </c>
       <c r="E21">
-        <v>0.08553838495392085</v>
+        <v>0.02973315884451289</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4200484372016291</v>
+        <v>0.410904457214798</v>
       </c>
       <c r="H21">
-        <v>0.5538317013894272</v>
+        <v>0.2567725666256706</v>
       </c>
       <c r="I21">
-        <v>0.4714328921793367</v>
+        <v>0.1402709370230184</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2793069537989936</v>
+        <v>0.5489299671914694</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.896410010006576</v>
+        <v>1.360988114382309</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.157332570910114</v>
+        <v>6.161623864900093</v>
       </c>
       <c r="C22">
-        <v>0.3798145795481105</v>
+        <v>0.8907031588265966</v>
       </c>
       <c r="D22">
-        <v>0.1232139602090427</v>
+        <v>0.3654848647034754</v>
       </c>
       <c r="E22">
-        <v>0.08479273966102241</v>
+        <v>0.02964282800087759</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4213334158991273</v>
+        <v>0.4382830219234535</v>
       </c>
       <c r="H22">
-        <v>0.5510661679652742</v>
+        <v>0.2639820909526804</v>
       </c>
       <c r="I22">
-        <v>0.4651657252861163</v>
+        <v>0.1382908946746539</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2898277739428465</v>
+        <v>0.5896770956247224</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.893563749458025</v>
+        <v>1.434452977345728</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.087553692113033</v>
+        <v>5.935212174461356</v>
       </c>
       <c r="C23">
-        <v>0.3707988866038363</v>
+        <v>0.8628600632855523</v>
       </c>
       <c r="D23">
-        <v>0.1194531360506659</v>
+        <v>0.3513366550894119</v>
       </c>
       <c r="E23">
-        <v>0.08518597734071065</v>
+        <v>0.02967919592018475</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4206100100335846</v>
+        <v>0.423499968811214</v>
       </c>
       <c r="H23">
-        <v>0.5525121622627296</v>
+        <v>0.2600427521435904</v>
       </c>
       <c r="I23">
-        <v>0.4684744280067363</v>
+        <v>0.1392267586779603</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2842048388459517</v>
+        <v>0.5678801321109006</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.89494116797357</v>
+        <v>1.394691030745292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.822844040812868</v>
+        <v>5.081453015753652</v>
       </c>
       <c r="C24">
-        <v>0.3365562167900578</v>
+        <v>0.7577696391176687</v>
       </c>
       <c r="D24">
-        <v>0.1052728748895646</v>
+        <v>0.2984573224185993</v>
       </c>
       <c r="E24">
-        <v>0.08677910132038136</v>
+        <v>0.03006920999784946</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4186936869563169</v>
+        <v>0.3710896796155083</v>
       </c>
       <c r="H24">
-        <v>0.5586476141536707</v>
+        <v>0.2470560892729736</v>
       </c>
       <c r="I24">
-        <v>0.4817993847844875</v>
+        <v>0.1453278870821109</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2630802864763524</v>
+        <v>0.4863519400729786</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.903264380176438</v>
+        <v>1.255713320792836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.536476986031971</v>
+        <v>4.166398632881567</v>
       </c>
       <c r="C25">
-        <v>0.2994260522797276</v>
+        <v>0.6449632252298727</v>
       </c>
       <c r="D25">
-        <v>0.09011239538018856</v>
+        <v>0.2426561152866213</v>
       </c>
       <c r="E25">
-        <v>0.08871895397963847</v>
+        <v>0.03098117166303282</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.418371046290261</v>
+        <v>0.3211842562834164</v>
       </c>
       <c r="H25">
-        <v>0.5666697426199505</v>
+        <v>0.23671753948814</v>
       </c>
       <c r="I25">
-        <v>0.4978584183444106</v>
+        <v>0.1567718570398675</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.240664114622362</v>
+        <v>0.400227260555738</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.918839364982034</v>
+        <v>1.127496829217904</v>
       </c>
     </row>
   </sheetData>
